--- a/cseditdistance/data/compare_ieditdistance.xlsx
+++ b/cseditdistance/data/compare_ieditdistance.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1fastaccess\RPA\RPA_source\Information Retrieval\iEditDistance\cseditdistance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB427351-306C-4C9B-809A-C308EB347AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF60EB39-3BAB-4478-9528-16A535328825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10095" tabRatio="481" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230130" sheetId="1" r:id="rId1"/>
     <sheet name="compare" sheetId="2" r:id="rId2"/>
+    <sheet name="หัวข้อ" sheetId="5" r:id="rId3"/>
+    <sheet name="ชื่อบริษัท" sheetId="7" r:id="rId4"/>
+    <sheet name="TaxID-สัญญารายย่อย" sheetId="8" r:id="rId5"/>
+    <sheet name="TaxID-สัญญารายย่อย (2)" sheetId="9" r:id="rId6"/>
+    <sheet name="todo" sheetId="6" r:id="rId7"/>
+    <sheet name="matrix" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="283">
   <si>
     <t>Application ID</t>
   </si>
@@ -615,9 +621,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>ABBYYYY</t>
-  </si>
-  <si>
     <t>hospital</t>
   </si>
   <si>
@@ -730,13 +733,206 @@
   </si>
   <si>
     <t>3.เงินกู้สวัสดิการแก่ข้าราชการ</t>
+  </si>
+  <si>
+    <t>ส</t>
+  </si>
+  <si>
+    <t>น</t>
+  </si>
+  <si>
+    <t>เ</t>
+  </si>
+  <si>
+    <t>ช</t>
+  </si>
+  <si>
+    <t>อ</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ล</t>
+  </si>
+  <si>
+    <t>ิ</t>
+  </si>
+  <si>
+    <t>ั</t>
+  </si>
+  <si>
+    <t>ื</t>
+  </si>
+  <si>
+    <t>่</t>
+  </si>
+  <si>
+    <t>ซ</t>
+  </si>
+  <si>
+    <t>ี</t>
+  </si>
+  <si>
+    <t>คำว่า "สินเชื่อ" vs "ลัน!?ซื่ซี" , distance = 7</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Case 1)</t>
+  </si>
+  <si>
+    <t>ABBYYY</t>
+  </si>
+  <si>
+    <r>
+      <t>ABBY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+  </si>
+  <si>
+    <t>ชื่อบริษัท</t>
+  </si>
+  <si>
+    <t>TaxID</t>
+  </si>
+  <si>
+    <t>CitizenID</t>
+  </si>
+  <si>
+    <t>ชื่อสัญญา</t>
+  </si>
+  <si>
+    <t>ชื่อเดือน</t>
+  </si>
+  <si>
+    <t>วัตถุประสงค์</t>
+  </si>
+  <si>
+    <t>มีประมาณ 1x,xxx รายการ</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input, output , structure</t>
+  </si>
+  <si>
+    <t>2. Follow design &gt; loop (1*) &amp; decision -&gt; service (design spec service)</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>Topic : หัวข้อ เช่น validate taxid of document no1</t>
+  </si>
+  <si>
+    <t>- TaxID</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
+    <t>123154214324</t>
+  </si>
+  <si>
+    <t>TaxID-สัญญารายย่อย</t>
+  </si>
+  <si>
+    <t>TaxID-สัญญารายใหญ่</t>
+  </si>
+  <si>
+    <t>ถ้าไม่ตรงให้ Exception</t>
+  </si>
+  <si>
+    <t>Data source2</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>APPLE</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>APPLA</t>
+  </si>
+  <si>
+    <t>สัญญารายย่อย</t>
+  </si>
+  <si>
+    <t>database -&gt; Excel File (File ตาม Topic)</t>
+  </si>
+  <si>
+    <t>Not Match</t>
+  </si>
+  <si>
+    <t>Match by Edit Distance (% variable)</t>
+  </si>
+  <si>
+    <t>return value</t>
+  </si>
+  <si>
+    <t>Sequen diagram: ของข้อ 2</t>
+  </si>
+  <si>
+    <t>ทำบนเครื่องส่วนตัว ก่อน</t>
+  </si>
+  <si>
+    <t>*** Spec: วันอังคาร ข้อ 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Abbyy call </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rest api</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Hello!) (How to &amp; installation guide) เอาไว้ที่เครื่อง SIT 10.247.40.54</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,8 +1073,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="System"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1064,8 +1291,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1180,6 +1461,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1225,7 +1521,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1260,6 +1556,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1307,12 +1657,12 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1469,6 +1819,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16213</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>189857</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Levenshtein distance between FLOMAX &amp; VOLMAX">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CEE1DE-9425-2A6A-D8CF-538CB184CA2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="624192" y="60798"/>
+          <a:ext cx="631654" cy="656618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AE27" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:AE27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -1510,16 +1926,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44B6E960-DD26-4C30-A6D0-E92DD753F9E9}" name="Table2" displayName="Table2" ref="A1:G34" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G34" xr:uid="{44B6E960-DD26-4C30-A6D0-E92DD753F9E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44B6E960-DD26-4C30-A6D0-E92DD753F9E9}" name="Table2" displayName="Table2" ref="A1:G35" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G35" xr:uid="{44B6E960-DD26-4C30-A6D0-E92DD753F9E9}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F92C64A0-FAC4-4B31-9C02-A8C0CEC156A3}" name="No" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{BF0A68DA-F5EB-4D5F-BA3D-606C1A1B3B43}" name="source1" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{B4B67696-F44F-4751-8ED3-585D8B02878D}" name="source2" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{EEF35E2E-EF52-4018-9B96-6EA059EDADF7}" name="distance" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{F3679626-6B81-44D5-8F9D-F409A794DAB6}" name="length" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{FB2AEF9F-C42F-4934-9887-0F6353CFB833}" name="%correct" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{61A7E44A-0ADE-4406-8DCC-7B92AD8D7593}" name="code" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{FB2AEF9F-C42F-4934-9887-0F6353CFB833}" name="%correct" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{61A7E44A-0ADE-4406-8DCC-7B92AD8D7593}" name="code" dataDxfId="0">
       <calculatedColumnFormula>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1830,7 +2246,7 @@
       <selection activeCell="C3" sqref="C3:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
@@ -1866,7 +2282,7 @@
     <col min="32" max="34" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="4" customFormat="1" ht="93.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1968,7 +2384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,7 +2479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="150">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2113,7 +2529,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="150">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2163,7 +2579,7 @@
         <v>244231</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="165">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2216,7 +2632,7 @@
         <v>244139</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="210">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -2272,7 +2688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="195">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -2328,7 +2744,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="210" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="210">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,7 +2797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="120">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -2431,7 +2847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="135">
       <c r="A10" s="1" t="s">
         <v>74</v>
       </c>
@@ -2478,7 +2894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="195">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
@@ -2528,7 +2944,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="150">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -2575,7 +2991,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="150">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
@@ -2622,7 +3038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="150">
       <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
@@ -2669,7 +3085,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="120">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -2716,7 +3132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="120">
       <c r="A16" s="1" t="s">
         <v>102</v>
       </c>
@@ -2763,7 +3179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="120">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -2810,7 +3226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="105">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -2860,7 +3276,7 @@
         <v>245723</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="90">
       <c r="A19" s="1" t="s">
         <v>113</v>
       </c>
@@ -2910,7 +3326,7 @@
         <v>245724</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="90">
       <c r="A20" s="1" t="s">
         <v>119</v>
       </c>
@@ -2960,7 +3376,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="60">
       <c r="A21" s="1" t="s">
         <v>124</v>
       </c>
@@ -3004,7 +3420,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="60">
       <c r="A22" s="1" t="s">
         <v>134</v>
       </c>
@@ -3048,7 +3464,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="60">
       <c r="A23" s="1" t="s">
         <v>138</v>
       </c>
@@ -3092,7 +3508,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="60">
       <c r="A24" s="1" t="s">
         <v>146</v>
       </c>
@@ -3136,7 +3552,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="135">
       <c r="A25" s="1" t="s">
         <v>152</v>
       </c>
@@ -3192,7 +3608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="135">
       <c r="A26" s="1" t="s">
         <v>162</v>
       </c>
@@ -3245,7 +3661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="135">
       <c r="A27" s="1" t="s">
         <v>167</v>
       </c>
@@ -3309,21 +3725,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DCEE64-DD2E-4146-AB85-AFB7F65041DE}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A25" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="6" width="8.5703125" style="11" customWidth="1"/>
     <col min="7" max="7" width="44.85546875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="29.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>189</v>
       </c>
@@ -3336,804 +3753,827 @@
       <c r="D1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>191</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="8">
         <v>7</v>
       </c>
       <c r="F2" s="9">
-        <v>0.57142859999999995</v>
+        <f>4/5</f>
+        <v>0.8</v>
       </c>
       <c r="G2" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
-        <v>result = r.Calculate("ABBYYYY" , "ABBY");</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
+        <v>result = r.Calculate("ABBYY" , "ABBY");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="8">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="30" t="str">
+        <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
+        <v>result = r.Calculate("ABBYYY" , "ABBY");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
         <v>8</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F4" s="10">
         <v>0.75</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G4" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("hospital" , "haspita");</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="5" spans="1:7">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E5" s="8">
         <v>8</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F5" s="10">
         <v>0.75</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G5" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("haspita" , "hospital");</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="6" spans="1:7" ht="60">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="8">
         <v>73</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G6" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("1.เงินกู้สวัสดิการแก่ข้าราชการ การเมืองท้องถิ่นสังกัด อบต. อบจ. และเทศบาล" , "1.เงินกู้สวัสดิการแก่ข้าราชการ การเมืองท้องถิ่นสังกัด อบต. อบจ. และเทศบาล");</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="8">
         <v>33</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>78</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>0.57692306999999998</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G7" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("2.เงินกู้สวัสดิการแก่ข้าราชการ การเมืองท้องถิ่นสังกัด อบต. อบจ. และเทศบาล" , "2..เงินกสฺ.วัสุดฺ.ทาร.แก่ข้าราชการ.กา.รเ.มีองฺ.ท้องถนสุงฺ.กู้^.ชินร^.แส?เทศบาล");</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="8" spans="1:7" ht="60">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>33</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>76</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <v>0.56578945000000003</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G8" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate(".เงินกสฺ.วัสุดฺ.ทาร.แก่ข้าราชการ.กา.รเ.มีองฺ.ท้องถนสุงฺ.กู้^.ชินร^.แส?เทศบาล" , "เงินกู้สวัสดิการแก่ข้าราชการ การเมืองท้องถิ่นสังกัด อบต. อบจ. และเทศบาล");</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B9" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="8">
         <v>9</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>34</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>0.73529409999999995</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G9" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("3.เงินกู้สวัสดิการแก่ข้าราชการ" , "3..เงินกสฺ.วัสุดฺ.ทาร.แก่ข้าราชการ");</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B10" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="8">
         <v>9</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>32</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>0.71875</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G10" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate(".เงินกสฺ.วัสุดฺ.ทาร.แก่ข้าราชการ" , "เงินกู้สวัสดิการแก่ข้าราชการ");</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="8">
         <v>4</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>13</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>0.69230773999999995</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G11" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("4.สินเชื่อ" , "4..สิน!?ชื่อ.");</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="12" spans="1:7">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="8">
         <v>4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>11</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>0.63636364000000001</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G12" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อ" , ".สิน!?ชื่อ.");</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="13" spans="1:7">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="B13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="8">
         <v>7</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>12</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>0.41666663999999998</v>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G13" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("5.สินเชื่อ" , "5.ลัน!?ซื่ซี");</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="14" spans="1:7">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="8">
         <v>7</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>10</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>0.30000001999999998</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G14" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อ" , "ลัน!?ซื่ซี");</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>8</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>0.875</v>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G15" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อ" , "ลินเชื่อ");</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="16" spans="1:7">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="B16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>8</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F16" s="10">
         <v>0.75</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G16" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อ" , "ลิมเชื่อ");</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="17" spans="1:7">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>8</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>0.75</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G17" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อ" , "ลิน1ชื่อ");</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="18" spans="1:7">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>8</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F18" s="10">
         <v>0.75</v>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G18" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อ" , "ลินเชื่");</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="19" spans="1:7">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="B19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="8">
         <v>2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>5</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>0.60000003999999996</v>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G19" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("GILY" , "GEELY");</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="20" spans="1:7">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B20" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="8">
         <v>3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>7</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>0.57142859999999995</v>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G20" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("HONDA" , "HYUNDAI");</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="21" spans="1:7">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B21" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="8">
         <v>2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>5</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>0.60000003999999996</v>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="G21" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("GEELY" , "GILY");</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="B22" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="8">
         <v>3</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>7</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>0.57142859999999995</v>
       </c>
-      <c r="G21" s="5" t="str">
+      <c r="G22" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("HYUNDAI" , "HONDA");</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="23" spans="1:7">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>3</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>6</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>0.5</v>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G23" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("FLOMAX" , "VOLMAX");</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="24" spans="1:7">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="8">
+      <c r="C24" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="8">
         <v>3</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>6</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F24" s="10">
         <v>0.5</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G24" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("VOLMAX" , "FLOMAX");</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="25" spans="1:7" ht="60">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <v>71</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>0.98591545000000003</v>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G25" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("เงินกู้สวัสดิการแก่ข้าราชการ การเมืองท้องถิ่นสังกัด อบต. อบจ. และเทศบาล" , "เงินกู้สวัสดิการแก่ข้าราชการ การเมืองท้องลิ่นสังกัด อบต. อบจ. และเทศบาล");</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="26" spans="1:7" ht="60">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>33</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>76</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>0.56578945000000003</v>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="G26" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("เงินกู้สวัสดิการแก่ข้าราชการ การเมืองท้องถิ่นสังกัด อบต. อบจ. และเทศบาล" , ".เงินกสฺ.วัสุดฺ.ทาร.แก่ข้าราชการ.กา.รเ.มีองฺ.ท้องถนสุงฺ.กู้^.ชินร^.แส?เทศบาล");</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="27" spans="1:7" ht="60">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="C27" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="8">
         <v>13</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>71</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>0.8169014</v>
       </c>
-      <c r="G26" s="5" t="str">
+      <c r="G27" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("เงินกู้สวัสดิการแก่ข้าราชการ การเมืองท้องถิ่นสังกัด อบต. อบจ. และเทศบาล" , "เงินก้สวัสดิการแก*ข้าราซการ การเมืองท-องกนสังกัด ชินต. อบจ. แสเทศบาส");</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="28" spans="1:7" ht="90">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C28" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="8">
         <v>18</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>117</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>0.84615390000000001</v>
       </c>
-      <c r="G27" s="5" t="str">
+      <c r="G28" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อที่อยู่อาศัยที่ธนาคารออกค่าจำนองให้สำหรับลูกค้าในอำนาจของผู้บริหารกลุ่มเครือข่าย (ห้ามปิดก่อน 3 ปี)" , ".สินเชื่อ.ที่.อยู่อา.ศัยฺที่ธนาคารออกค่าจํานองฺให้สําหรับลูกค้าใน.อาน่าจของผู้ บริ๋หารกลุ่มเครือข่าย(หามปิดก่อน 3 บี)");</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="29" spans="1:7" ht="90">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="B29" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="8">
         <v>27</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>123</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>0.78048775000000004</v>
       </c>
-      <c r="G28" s="5" t="str">
+      <c r="G29" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อที่อยู่อาศัยที่ธนาคารออกค่าจำนองให้สำหรับลูกค้าในอำนาจของผู้บริหารกลุ่มเครือข่าย(ห้ามปิดก่อน 3 ปี)" , ".สิน!?ชื่อ.ที่.'อุ.ยู่'อุาศัยุ.ที่ธนาคารฺออฺกเค่าจํานองให้สำหรับลูกค้าในอำนาจของผู้ บร์หารกลุ่มเครํ่อขาย(ห้ามปืดกืชิน 3 บี)");</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="30" spans="1:7" ht="75">
+      <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="B30" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="8">
         <v>76</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>106</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>0.28301885999999998</v>
       </c>
-      <c r="G29" s="5" t="str">
+      <c r="G30" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อที่อยู่อาศัยที่ธนาคารออกค่าจำนองให้สำหรับลูกค้าในอำนาจของผู้บริหารกลุ่มเครือข่าย(ห้ามปิดก่อน 3 ปี)" , " ลัน!?ซื่ซีที่.อุธ์อุๆ.ศัยุ.ที่ธนาคารอซีกุค่า.จํานองให้สําหรับุฐ.กุ.ค่าในอํา");</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="31" spans="1:7" ht="60">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="B31" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="8">
         <v>57</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>86</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>0.33720931999999998</v>
       </c>
-      <c r="G30" s="5" t="str">
+      <c r="G31" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่ออเนกประสงค์แบบพิเศษ สำหรับองค์กรปกครองส่วนท้องถิ่น สินเชื่ออเนกประสงค์แบบพิเศษ" , "สําหรับองค์กรปกครองส่วนท้องถิ่น");</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="32" spans="1:7" ht="60">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>34</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <v>73</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>0.53424656000000004</v>
       </c>
-      <c r="G31" s="5" t="str">
+      <c r="G32" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่ออเนกประสงค์แก่พนักงานรัฐวิสาหกิจ (ดำรงเงินฝาก)" , ".ชินุเฃีอ.'อุ.เนุทป.รุะสุงค์สิกุ.หรับพนัก.งานุรัซีวิสาหกิจ“ตํารงฺ.เงินฝาก");</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="33" spans="1:7" ht="75">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B33" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>23</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <v>91</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>0.74725269999999999</v>
       </c>
-      <c r="G32" s="5" t="str">
+      <c r="G33" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อ Home For Cash สำหรับลูกค้าในอำนาจของผู้บริหารกลุ่มเครือข่าย สินเชื่อ Home For Cash" , "สินเชื่อ Home For Cash สำหรับลูกค้าในอำนาจของผู้บริหารกลุ่มเครือข่าย");</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="34" spans="1:7" ht="60">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="B34" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="8">
         <v>69</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>91</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>0.24175825000000001</v>
       </c>
-      <c r="G33" s="5" t="str">
+      <c r="G34" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อ Home For Cash สำหรับลูกค้าในอำนาจของผู้บริหารกลุ่มเครือข่าย สินเชื่อ Home For Cash" , "สินเชื่อ Home For Cash");</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="35" spans="1:7" ht="75">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="C35" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D35" s="8">
         <v>43</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <v>100</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G34" s="5" t="str">
+      <c r="G35" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("สินเชื่อ Home For Cash อัตราดอกเบี้ยพิเศษ ในอำนาจของผู้บริหารกลุ่มเครือข่าย (เพื่อป้องกัน Refinance)" , ".สินเชื่ชิ.HQmefFor Cash อัตรุาดอฺ.กุเบี้ย.พิเศ ขาย (เพือป้องกัน Refinance)");</v>
       </c>
@@ -4141,8 +4581,1330 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20B42DC-F998-4970-830E-0B33D7D593EC}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC14F4F-4B35-478B-AC27-FCABCE826E3E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ADAE84-B53E-4483-8D8E-17BEA5EDA1D2}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>12392634193624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>4231412342134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E9F2D3-D4A2-4B13-A3B4-AEAAFA9B0E5E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>12392634193624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>4231412342134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613DAD67-06E2-429E-B285-9BB401CAD1C8}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3681ACB-7AD9-4B57-A10B-19CE0502BE46}">
+  <dimension ref="A5:V41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="4" max="13" width="3.140625" style="11" customWidth="1"/>
+    <col min="14" max="18" width="2" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3</v>
+      </c>
+      <c r="F8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G8" s="14">
+        <v>5</v>
+      </c>
+      <c r="H8" s="14">
+        <v>6</v>
+      </c>
+      <c r="I8" s="14">
+        <v>7</v>
+      </c>
+      <c r="J8" s="14">
+        <v>8</v>
+      </c>
+      <c r="K8" s="14">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3</v>
+      </c>
+      <c r="F12" s="14">
+        <v>4</v>
+      </c>
+      <c r="G12" s="14">
+        <v>5</v>
+      </c>
+      <c r="H12" s="14">
+        <v>6</v>
+      </c>
+      <c r="I12" s="14">
+        <v>7</v>
+      </c>
+      <c r="J12" s="14">
+        <v>8</v>
+      </c>
+      <c r="K12" s="14">
+        <v>9</v>
+      </c>
+      <c r="L12" s="14">
+        <v>10</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="22"/>
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26">
+        <v>2</v>
+      </c>
+      <c r="F17" s="26">
+        <v>3</v>
+      </c>
+      <c r="G17" s="26">
+        <v>4</v>
+      </c>
+      <c r="H17" s="26">
+        <v>5</v>
+      </c>
+      <c r="I17" s="26">
+        <v>6</v>
+      </c>
+      <c r="J17" s="26">
+        <v>7</v>
+      </c>
+      <c r="K17" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23">
+        <v>2</v>
+      </c>
+      <c r="F18" s="23">
+        <v>3</v>
+      </c>
+      <c r="G18" s="23">
+        <v>4</v>
+      </c>
+      <c r="H18" s="23">
+        <v>5</v>
+      </c>
+      <c r="I18" s="23">
+        <v>6</v>
+      </c>
+      <c r="J18" s="23">
+        <v>7</v>
+      </c>
+      <c r="K18" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="26">
+        <v>2</v>
+      </c>
+      <c r="D19" s="23">
+        <v>2</v>
+      </c>
+      <c r="E19" s="27">
+        <v>2</v>
+      </c>
+      <c r="F19" s="23">
+        <v>3</v>
+      </c>
+      <c r="G19" s="23">
+        <v>4</v>
+      </c>
+      <c r="H19" s="23">
+        <v>5</v>
+      </c>
+      <c r="I19" s="23">
+        <v>6</v>
+      </c>
+      <c r="J19" s="23">
+        <v>7</v>
+      </c>
+      <c r="K19" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="26">
+        <v>3</v>
+      </c>
+      <c r="D20" s="23">
+        <v>3</v>
+      </c>
+      <c r="E20" s="23">
+        <v>3</v>
+      </c>
+      <c r="F20" s="24">
+        <v>2</v>
+      </c>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="23">
+        <v>4</v>
+      </c>
+      <c r="I20" s="23">
+        <v>5</v>
+      </c>
+      <c r="J20" s="23">
+        <v>6</v>
+      </c>
+      <c r="K20" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="26">
+        <v>4</v>
+      </c>
+      <c r="D21" s="23">
+        <v>4</v>
+      </c>
+      <c r="E21" s="23">
+        <v>4</v>
+      </c>
+      <c r="F21" s="23">
+        <v>3</v>
+      </c>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="23">
+        <v>4</v>
+      </c>
+      <c r="I21" s="23">
+        <v>5</v>
+      </c>
+      <c r="J21" s="23">
+        <v>6</v>
+      </c>
+      <c r="K21" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="26">
+        <v>5</v>
+      </c>
+      <c r="D22" s="23">
+        <v>5</v>
+      </c>
+      <c r="E22" s="23">
+        <v>5</v>
+      </c>
+      <c r="F22" s="23">
+        <v>4</v>
+      </c>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="23">
+        <v>4</v>
+      </c>
+      <c r="I22" s="23">
+        <v>5</v>
+      </c>
+      <c r="J22" s="23">
+        <v>6</v>
+      </c>
+      <c r="K22" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="26">
+        <v>6</v>
+      </c>
+      <c r="D23" s="23">
+        <v>6</v>
+      </c>
+      <c r="E23" s="23">
+        <v>6</v>
+      </c>
+      <c r="F23" s="23">
+        <v>5</v>
+      </c>
+      <c r="G23" s="23">
+        <v>5</v>
+      </c>
+      <c r="H23" s="27">
+        <v>5</v>
+      </c>
+      <c r="I23" s="23">
+        <v>5</v>
+      </c>
+      <c r="J23" s="23">
+        <v>6</v>
+      </c>
+      <c r="K23" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="26">
+        <v>7</v>
+      </c>
+      <c r="D24" s="23">
+        <v>7</v>
+      </c>
+      <c r="E24" s="23">
+        <v>7</v>
+      </c>
+      <c r="F24" s="23">
+        <v>6</v>
+      </c>
+      <c r="G24" s="23">
+        <v>6</v>
+      </c>
+      <c r="H24" s="23">
+        <v>6</v>
+      </c>
+      <c r="I24" s="24">
+        <v>5</v>
+      </c>
+      <c r="J24" s="23">
+        <v>6</v>
+      </c>
+      <c r="K24" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="26">
+        <v>8</v>
+      </c>
+      <c r="D25" s="23">
+        <v>8</v>
+      </c>
+      <c r="E25" s="23">
+        <v>8</v>
+      </c>
+      <c r="F25" s="23">
+        <v>7</v>
+      </c>
+      <c r="G25" s="23">
+        <v>7</v>
+      </c>
+      <c r="H25" s="23">
+        <v>7</v>
+      </c>
+      <c r="I25" s="23">
+        <v>6</v>
+      </c>
+      <c r="J25" s="24">
+        <v>5</v>
+      </c>
+      <c r="K25" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="26">
+        <v>9</v>
+      </c>
+      <c r="D26" s="23">
+        <v>9</v>
+      </c>
+      <c r="E26" s="23">
+        <v>9</v>
+      </c>
+      <c r="F26" s="23">
+        <v>8</v>
+      </c>
+      <c r="G26" s="23">
+        <v>8</v>
+      </c>
+      <c r="H26" s="23">
+        <v>8</v>
+      </c>
+      <c r="I26" s="23">
+        <v>7</v>
+      </c>
+      <c r="J26" s="23">
+        <v>6</v>
+      </c>
+      <c r="K26" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="26">
+        <v>10</v>
+      </c>
+      <c r="D27" s="23">
+        <v>10</v>
+      </c>
+      <c r="E27" s="23">
+        <v>10</v>
+      </c>
+      <c r="F27" s="23">
+        <v>9</v>
+      </c>
+      <c r="G27" s="23">
+        <v>9</v>
+      </c>
+      <c r="H27" s="23">
+        <v>9</v>
+      </c>
+      <c r="I27" s="23">
+        <v>8</v>
+      </c>
+      <c r="J27" s="23">
+        <v>7</v>
+      </c>
+      <c r="K27" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="22"/>
+      <c r="C31" s="14">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14">
+        <v>2</v>
+      </c>
+      <c r="F31" s="14">
+        <v>3</v>
+      </c>
+      <c r="G31" s="14">
+        <v>4</v>
+      </c>
+      <c r="H31" s="14">
+        <v>5</v>
+      </c>
+      <c r="I31" s="14">
+        <v>6</v>
+      </c>
+      <c r="J31" s="14">
+        <v>7</v>
+      </c>
+      <c r="K31" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
+      <c r="D32" s="24">
+        <v>1</v>
+      </c>
+      <c r="E32" s="23">
+        <v>2</v>
+      </c>
+      <c r="F32" s="23">
+        <v>3</v>
+      </c>
+      <c r="G32" s="23">
+        <v>4</v>
+      </c>
+      <c r="H32" s="23">
+        <v>5</v>
+      </c>
+      <c r="I32" s="23">
+        <v>6</v>
+      </c>
+      <c r="J32" s="23">
+        <v>7</v>
+      </c>
+      <c r="K32" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="14">
+        <v>2</v>
+      </c>
+      <c r="D33" s="23">
+        <v>2</v>
+      </c>
+      <c r="E33" s="24">
+        <v>2</v>
+      </c>
+      <c r="F33" s="23">
+        <v>3</v>
+      </c>
+      <c r="G33" s="23">
+        <v>4</v>
+      </c>
+      <c r="H33" s="23">
+        <v>5</v>
+      </c>
+      <c r="I33" s="23">
+        <v>6</v>
+      </c>
+      <c r="J33" s="23">
+        <v>7</v>
+      </c>
+      <c r="K33" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="14">
+        <v>3</v>
+      </c>
+      <c r="D34" s="23">
+        <v>3</v>
+      </c>
+      <c r="E34" s="23">
+        <v>3</v>
+      </c>
+      <c r="F34" s="25">
+        <v>2</v>
+      </c>
+      <c r="G34" s="23">
+        <v>3</v>
+      </c>
+      <c r="H34" s="23">
+        <v>4</v>
+      </c>
+      <c r="I34" s="23">
+        <v>5</v>
+      </c>
+      <c r="J34" s="23">
+        <v>6</v>
+      </c>
+      <c r="K34" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="14">
+        <v>4</v>
+      </c>
+      <c r="D35" s="23">
+        <v>4</v>
+      </c>
+      <c r="E35" s="23">
+        <v>4</v>
+      </c>
+      <c r="F35" s="23">
+        <v>3</v>
+      </c>
+      <c r="G35" s="24">
+        <v>3</v>
+      </c>
+      <c r="H35" s="23">
+        <v>4</v>
+      </c>
+      <c r="I35" s="23">
+        <v>5</v>
+      </c>
+      <c r="J35" s="23">
+        <v>6</v>
+      </c>
+      <c r="K35" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="14">
+        <v>5</v>
+      </c>
+      <c r="D36" s="23">
+        <v>5</v>
+      </c>
+      <c r="E36" s="23">
+        <v>5</v>
+      </c>
+      <c r="F36" s="23">
+        <v>4</v>
+      </c>
+      <c r="G36" s="23">
+        <v>4</v>
+      </c>
+      <c r="H36" s="24">
+        <v>4</v>
+      </c>
+      <c r="I36" s="23">
+        <v>5</v>
+      </c>
+      <c r="J36" s="23">
+        <v>6</v>
+      </c>
+      <c r="K36" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="14">
+        <v>6</v>
+      </c>
+      <c r="D37" s="23">
+        <v>6</v>
+      </c>
+      <c r="E37" s="23">
+        <v>6</v>
+      </c>
+      <c r="F37" s="23">
+        <v>5</v>
+      </c>
+      <c r="G37" s="23">
+        <v>5</v>
+      </c>
+      <c r="H37" s="23">
+        <v>5</v>
+      </c>
+      <c r="I37" s="23">
+        <v>5</v>
+      </c>
+      <c r="J37" s="23">
+        <v>6</v>
+      </c>
+      <c r="K37" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="14">
+        <v>7</v>
+      </c>
+      <c r="D38" s="23">
+        <v>7</v>
+      </c>
+      <c r="E38" s="23">
+        <v>7</v>
+      </c>
+      <c r="F38" s="23">
+        <v>6</v>
+      </c>
+      <c r="G38" s="23">
+        <v>6</v>
+      </c>
+      <c r="H38" s="23">
+        <v>6</v>
+      </c>
+      <c r="I38" s="25">
+        <v>5</v>
+      </c>
+      <c r="J38" s="23">
+        <v>6</v>
+      </c>
+      <c r="K38" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="14">
+        <v>8</v>
+      </c>
+      <c r="D39" s="23">
+        <v>8</v>
+      </c>
+      <c r="E39" s="23">
+        <v>8</v>
+      </c>
+      <c r="F39" s="23">
+        <v>7</v>
+      </c>
+      <c r="G39" s="23">
+        <v>7</v>
+      </c>
+      <c r="H39" s="23">
+        <v>7</v>
+      </c>
+      <c r="I39" s="23">
+        <v>6</v>
+      </c>
+      <c r="J39" s="25">
+        <v>5</v>
+      </c>
+      <c r="K39" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="14">
+        <v>9</v>
+      </c>
+      <c r="D40" s="23">
+        <v>9</v>
+      </c>
+      <c r="E40" s="23">
+        <v>9</v>
+      </c>
+      <c r="F40" s="23">
+        <v>8</v>
+      </c>
+      <c r="G40" s="23">
+        <v>8</v>
+      </c>
+      <c r="H40" s="23">
+        <v>8</v>
+      </c>
+      <c r="I40" s="23">
+        <v>7</v>
+      </c>
+      <c r="J40" s="23">
+        <v>6</v>
+      </c>
+      <c r="K40" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="14">
+        <v>10</v>
+      </c>
+      <c r="D41" s="23">
+        <v>10</v>
+      </c>
+      <c r="E41" s="23">
+        <v>10</v>
+      </c>
+      <c r="F41" s="23">
+        <v>9</v>
+      </c>
+      <c r="G41" s="23">
+        <v>9</v>
+      </c>
+      <c r="H41" s="23">
+        <v>9</v>
+      </c>
+      <c r="I41" s="23">
+        <v>8</v>
+      </c>
+      <c r="J41" s="23">
+        <v>7</v>
+      </c>
+      <c r="K41" s="23">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/cseditdistance/data/compare_ieditdistance.xlsx
+++ b/cseditdistance/data/compare_ieditdistance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1fastaccess\RPA\RPA_source\Information Retrieval\iEditDistance\cseditdistance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF60EB39-3BAB-4478-9528-16A535328825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDB320B-3FE8-4F30-9177-428A129A788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10095" tabRatio="481" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15495" tabRatio="442" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20230130" sheetId="1" r:id="rId1"/>
@@ -1521,7 +1521,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1563,13 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1603,9 +1597,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3753,10 +3744,10 @@
       <c r="D1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>191</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -3805,7 +3796,7 @@
       <c r="F3" s="9">
         <v>0.8</v>
       </c>
-      <c r="G3" s="30" t="str">
+      <c r="G3" s="5" t="str">
         <f>"result = r.Calculate(" &amp; """" &amp; Table2[[#This Row],[source1]] &amp; """" &amp; " , " &amp; """" &amp; Table2[[#This Row],[source2]] &amp; """" &amp; ");"</f>
         <v>result = r.Calculate("ABBYYY" , "ABBY");</v>
       </c>
@@ -4592,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20B42DC-F998-4970-830E-0B33D7D593EC}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4611,7 +4602,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>263</v>
       </c>
       <c r="B2" t="s">
@@ -4642,14 +4633,14 @@
       <c r="A4" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="29"/>
       <c r="F4" t="s">
         <v>256</v>
       </c>
@@ -4658,7 +4649,7 @@
       <c r="A5" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4666,10 +4657,10 @@
       <c r="A6" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="29" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4712,7 +4703,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="29" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4821,29 +4812,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613DAD67-06E2-429E-B285-9BB401CAD1C8}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4858,7 +4849,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4939,36 +4930,36 @@
       <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>239</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="15" t="s">
         <v>241</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="L9" s="26"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
@@ -4979,22 +4970,22 @@
       <c r="B10" s="14">
         <v>2</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>243</v>
       </c>
       <c r="I10" s="15" t="s">
@@ -5003,16 +4994,16 @@
       <c r="J10" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
@@ -5020,10 +5011,10 @@
       <c r="V10" s="12"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
@@ -5061,10 +5052,10 @@
       <c r="L12" s="14">
         <v>10</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
@@ -5075,22 +5066,22 @@
       <c r="B13" s="14">
         <v>1</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>240</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="16" t="s">
         <v>243</v>
       </c>
       <c r="I13" s="15" t="s">
@@ -5099,16 +5090,16 @@
       <c r="J13" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
@@ -5119,441 +5110,441 @@
       <c r="B14" s="14">
         <v>2</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>239</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="15" t="s">
         <v>241</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="28"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="19" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="22"/>
-      <c r="C17" s="26">
+      <c r="B17" s="20"/>
+      <c r="C17" s="24">
         <v>0</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="24">
         <v>1</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>2</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="24">
         <v>3</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="24">
         <v>4</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="24">
         <v>5</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="24">
         <v>6</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="24">
         <v>7</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>1</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="21">
         <v>1</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>2</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <v>3</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="21">
         <v>4</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="21">
         <v>5</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="21">
         <v>6</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="21">
         <v>7</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>2</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="21">
         <v>2</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <v>2</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <v>3</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="21">
         <v>4</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="21">
         <v>5</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <v>6</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="21">
         <v>7</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="24">
         <v>3</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="21">
         <v>3</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>3</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <v>2</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="21">
         <v>3</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="21">
         <v>4</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="21">
         <v>5</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="21">
         <v>6</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="24">
         <v>4</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <v>4</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>4</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>3</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="21">
         <v>3</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="21">
         <v>4</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="21">
         <v>5</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="21">
         <v>6</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="24">
         <v>5</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="21">
         <v>5</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>5</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="21">
         <v>4</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="21">
         <v>4</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="21">
         <v>4</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="21">
         <v>5</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="21">
         <v>6</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="24">
         <v>6</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="21">
         <v>6</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="21">
         <v>6</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="21">
         <v>5</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="21">
         <v>5</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="25">
         <v>5</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="21">
         <v>5</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="21">
         <v>6</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="24">
         <v>7</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="21">
         <v>7</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="21">
         <v>7</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="21">
         <v>6</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="21">
         <v>6</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="21">
         <v>6</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="22">
         <v>5</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="21">
         <v>6</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="24">
         <v>8</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="21">
         <v>8</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="21">
         <v>8</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="21">
         <v>7</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="21">
         <v>7</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="21">
         <v>7</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="21">
         <v>6</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <v>5</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <v>9</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="21">
         <v>9</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <v>9</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="21">
         <v>8</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="21">
         <v>8</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="21">
         <v>8</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="21">
         <v>7</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="21">
         <v>6</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="24">
         <v>10</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="21">
         <v>10</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="21">
         <v>10</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="21">
         <v>9</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="21">
         <v>9</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="21">
         <v>9</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="21">
         <v>8</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="21">
         <v>7</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="21" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="19" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="22"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="14">
         <v>0</v>
       </c>
@@ -5583,322 +5574,322 @@
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>238</v>
       </c>
       <c r="C32" s="14">
         <v>1</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="22">
         <v>1</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="21">
         <v>2</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="21">
         <v>3</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="21">
         <v>4</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="21">
         <v>5</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="21">
         <v>6</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="21">
         <v>7</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>240</v>
       </c>
       <c r="C33" s="14">
         <v>2</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="21">
         <v>2</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="22">
         <v>2</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="21">
         <v>3</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="21">
         <v>4</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="21">
         <v>5</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="21">
         <v>6</v>
       </c>
-      <c r="J33" s="23">
+      <c r="J33" s="21">
         <v>7</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>232</v>
       </c>
       <c r="C34" s="14">
         <v>3</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="21">
         <v>3</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="21">
         <v>3</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="23">
         <v>2</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="21">
         <v>3</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="21">
         <v>4</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="21">
         <v>5</v>
       </c>
-      <c r="J34" s="23">
+      <c r="J34" s="21">
         <v>6</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>236</v>
       </c>
       <c r="C35" s="14">
         <v>4</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="21">
         <v>4</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="21">
         <v>4</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="21">
         <v>3</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="22">
         <v>3</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="21">
         <v>4</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="21">
         <v>5</v>
       </c>
-      <c r="J35" s="23">
+      <c r="J35" s="21">
         <v>6</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="19" t="s">
         <v>237</v>
       </c>
       <c r="C36" s="14">
         <v>5</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="21">
         <v>5</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="21">
         <v>5</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="21">
         <v>4</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="21">
         <v>4</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="22">
         <v>4</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="21">
         <v>5</v>
       </c>
-      <c r="J36" s="23">
+      <c r="J36" s="21">
         <v>6</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>243</v>
       </c>
       <c r="C37" s="14">
         <v>6</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="21">
         <v>6</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="21">
         <v>6</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="21">
         <v>5</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="21">
         <v>5</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="21">
         <v>5</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="21">
         <v>5</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="21">
         <v>6</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>241</v>
       </c>
       <c r="C38" s="14">
         <v>7</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="21">
         <v>7</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="21">
         <v>7</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="21">
         <v>6</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="21">
         <v>6</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="21">
         <v>6</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="23">
         <v>5</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="21">
         <v>6</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>242</v>
       </c>
       <c r="C39" s="14">
         <v>8</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="21">
         <v>8</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="21">
         <v>8</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="21">
         <v>7</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="21">
         <v>7</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="21">
         <v>7</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="21">
         <v>6</v>
       </c>
-      <c r="J39" s="25">
+      <c r="J39" s="23">
         <v>5</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>243</v>
       </c>
       <c r="C40" s="14">
         <v>9</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="21">
         <v>9</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="21">
         <v>9</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="21">
         <v>8</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="21">
         <v>8</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="21">
         <v>8</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="21">
         <v>7</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J40" s="21">
         <v>6</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>244</v>
       </c>
       <c r="C41" s="14">
         <v>10</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="21">
         <v>10</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="21">
         <v>10</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="21">
         <v>9</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="21">
         <v>9</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="21">
         <v>9</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I41" s="21">
         <v>8</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J41" s="21">
         <v>7</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="21">
         <v>7</v>
       </c>
     </row>
